--- a/PageBuilder/LangInputs/use.xlsx
+++ b/PageBuilder/LangInputs/use.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Knihovny\Plocha\LangInputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Knihovny\Dokumenty\GitHub\smart-phrase-scripts\PageBuilder\LangInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="20490" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="583">
   <si>
     <t>cs</t>
   </si>
@@ -294,6 +294,1485 @@
   </si>
   <si>
     <t>اللغة</t>
+  </si>
+  <si>
+    <t>Angličtina</t>
+  </si>
+  <si>
+    <t>Engelsk</t>
+  </si>
+  <si>
+    <t>Englisch</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Inglés</t>
+  </si>
+  <si>
+    <t>Anglais</t>
+  </si>
+  <si>
+    <t>Engleski jezik</t>
+  </si>
+  <si>
+    <t>Inglese</t>
+  </si>
+  <si>
+    <t>Angol</t>
+  </si>
+  <si>
+    <t>Engels</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Inglês</t>
+  </si>
+  <si>
+    <t>Englanti</t>
+  </si>
+  <si>
+    <t>Engelska</t>
+  </si>
+  <si>
+    <t>İngilizce</t>
+  </si>
+  <si>
+    <t>Αγγλική</t>
+  </si>
+  <si>
+    <t>Английски</t>
+  </si>
+  <si>
+    <t>Английский</t>
+  </si>
+  <si>
+    <t>שפה אנגלית</t>
+  </si>
+  <si>
+    <t>الإنجليزية</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>英語</t>
+  </si>
+  <si>
+    <t>Arabština</t>
+  </si>
+  <si>
+    <t>Arabisk</t>
+  </si>
+  <si>
+    <t>Arabisch</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Árabe</t>
+  </si>
+  <si>
+    <t>Arabe</t>
+  </si>
+  <si>
+    <t>Arapski jezik</t>
+  </si>
+  <si>
+    <t>Arabo</t>
+  </si>
+  <si>
+    <t>Arab</t>
+  </si>
+  <si>
+    <t>Język arabski</t>
+  </si>
+  <si>
+    <t>Arábico</t>
+  </si>
+  <si>
+    <t>Arabia</t>
+  </si>
+  <si>
+    <t>Arabiska</t>
+  </si>
+  <si>
+    <t>Arapça</t>
+  </si>
+  <si>
+    <t>Αραβική</t>
+  </si>
+  <si>
+    <t>Арабски</t>
+  </si>
+  <si>
+    <t>Арабский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ערבית </t>
+  </si>
+  <si>
+    <t>العربية</t>
+  </si>
+  <si>
+    <t>阿拉伯语</t>
+  </si>
+  <si>
+    <t>アラブ語</t>
+  </si>
+  <si>
+    <t>Bulharština</t>
+  </si>
+  <si>
+    <t>Bulgarsk</t>
+  </si>
+  <si>
+    <t>Bulgarisch</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+  </si>
+  <si>
+    <t>Búlgaro</t>
+  </si>
+  <si>
+    <t>Bulgare</t>
+  </si>
+  <si>
+    <t>Bugarski jezik</t>
+  </si>
+  <si>
+    <t>Bulgaro</t>
+  </si>
+  <si>
+    <t>Bolgár</t>
+  </si>
+  <si>
+    <t>Bulgaars</t>
+  </si>
+  <si>
+    <t>Język bułgarski</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Bulgariska</t>
+  </si>
+  <si>
+    <t>Bulgarca</t>
+  </si>
+  <si>
+    <t>Βουλγάρικη</t>
+  </si>
+  <si>
+    <t>български</t>
+  </si>
+  <si>
+    <t>Болгарский</t>
+  </si>
+  <si>
+    <t>בולגרית</t>
+  </si>
+  <si>
+    <t>البلغارية</t>
+  </si>
+  <si>
+    <t>保加利亚语</t>
+  </si>
+  <si>
+    <t>ブルガリア語</t>
+  </si>
+  <si>
+    <t>Čínština</t>
+  </si>
+  <si>
+    <t>Kinesisk</t>
+  </si>
+  <si>
+    <t>Chinesish</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Chino</t>
+  </si>
+  <si>
+    <t>Chinois</t>
+  </si>
+  <si>
+    <t>Kineski jezik</t>
+  </si>
+  <si>
+    <t>Cinese</t>
+  </si>
+  <si>
+    <t>Kínai</t>
+  </si>
+  <si>
+    <t>Chinees</t>
+  </si>
+  <si>
+    <t>Język chiński</t>
+  </si>
+  <si>
+    <t>Chinês</t>
+  </si>
+  <si>
+    <t>Kiina</t>
+  </si>
+  <si>
+    <t>Kinesiska</t>
+  </si>
+  <si>
+    <t>Çince</t>
+  </si>
+  <si>
+    <t>Κινέζικη</t>
+  </si>
+  <si>
+    <t>Китайски</t>
+  </si>
+  <si>
+    <t>Китайский</t>
+  </si>
+  <si>
+    <t>סינית</t>
+  </si>
+  <si>
+    <t>الصينية</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>中国語</t>
+  </si>
+  <si>
+    <t>Dánština</t>
+  </si>
+  <si>
+    <t>Dansk</t>
+  </si>
+  <si>
+    <t>Dänisch</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>Danés</t>
+  </si>
+  <si>
+    <t>Danois</t>
+  </si>
+  <si>
+    <t>Danski jezik</t>
+  </si>
+  <si>
+    <t>Danese</t>
+  </si>
+  <si>
+    <t>Dán</t>
+  </si>
+  <si>
+    <t>Deens</t>
+  </si>
+  <si>
+    <t>Język duński</t>
+  </si>
+  <si>
+    <t>Dinamarquês</t>
+  </si>
+  <si>
+    <t>Tanska</t>
+  </si>
+  <si>
+    <t>Danska</t>
+  </si>
+  <si>
+    <t>Danimarkaca</t>
+  </si>
+  <si>
+    <t>Δανέζικη</t>
+  </si>
+  <si>
+    <t>Датски</t>
+  </si>
+  <si>
+    <t>Датский</t>
+  </si>
+  <si>
+    <t>דנית</t>
+  </si>
+  <si>
+    <t>الدانماركية</t>
+  </si>
+  <si>
+    <t>丹麦语</t>
+  </si>
+  <si>
+    <t>デンマーク語</t>
+  </si>
+  <si>
+    <t>Finština</t>
+  </si>
+  <si>
+    <t>Finsk</t>
+  </si>
+  <si>
+    <t>Finnisch</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>Finés</t>
+  </si>
+  <si>
+    <t>Finnois</t>
+  </si>
+  <si>
+    <t>Finski jezik</t>
+  </si>
+  <si>
+    <t>Finlandese</t>
+  </si>
+  <si>
+    <t>Finn</t>
+  </si>
+  <si>
+    <t>Fins</t>
+  </si>
+  <si>
+    <t>Język fiński</t>
+  </si>
+  <si>
+    <t>Finlandês</t>
+  </si>
+  <si>
+    <t>Suomalainen</t>
+  </si>
+  <si>
+    <t>Finska</t>
+  </si>
+  <si>
+    <t>Fince</t>
+  </si>
+  <si>
+    <t>Φινλανδική</t>
+  </si>
+  <si>
+    <t>Фински</t>
+  </si>
+  <si>
+    <t>Финский</t>
+  </si>
+  <si>
+    <t>פינית</t>
+  </si>
+  <si>
+    <t>الفنلندية</t>
+  </si>
+  <si>
+    <t>芬兰语</t>
+  </si>
+  <si>
+    <t>フィンランド語</t>
+  </si>
+  <si>
+    <t>Francouzština</t>
+  </si>
+  <si>
+    <t>Fransk</t>
+  </si>
+  <si>
+    <t>Französisch</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Francés</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>Francuski jezik</t>
+  </si>
+  <si>
+    <t>Francese</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>Frans</t>
+  </si>
+  <si>
+    <t>Język francuski</t>
+  </si>
+  <si>
+    <t>Francês</t>
+  </si>
+  <si>
+    <t>Ranska</t>
+  </si>
+  <si>
+    <t>Franska</t>
+  </si>
+  <si>
+    <t>Fransızca</t>
+  </si>
+  <si>
+    <t>Γαλλική</t>
+  </si>
+  <si>
+    <t>Френски</t>
+  </si>
+  <si>
+    <t>Французский</t>
+  </si>
+  <si>
+    <t>צרפתית</t>
+  </si>
+  <si>
+    <t>الفرنسية</t>
+  </si>
+  <si>
+    <t>法语</t>
+  </si>
+  <si>
+    <t>フランス語</t>
+  </si>
+  <si>
+    <t>Hebrejština</t>
+  </si>
+  <si>
+    <t>Hebraisk</t>
+  </si>
+  <si>
+    <t>Hebräisch</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>Hebreo</t>
+  </si>
+  <si>
+    <t>Hébreu</t>
+  </si>
+  <si>
+    <t>Hebrejski jezik</t>
+  </si>
+  <si>
+    <t>Ebraico</t>
+  </si>
+  <si>
+    <t>Héber</t>
+  </si>
+  <si>
+    <t>Hebreeuws</t>
+  </si>
+  <si>
+    <t>Język hebrajski</t>
+  </si>
+  <si>
+    <t>Hebraico</t>
+  </si>
+  <si>
+    <t>Heprea</t>
+  </si>
+  <si>
+    <t>Hebreiska</t>
+  </si>
+  <si>
+    <t>İbranice</t>
+  </si>
+  <si>
+    <t>Εβραϊκή</t>
+  </si>
+  <si>
+    <t>Иврит</t>
+  </si>
+  <si>
+    <t>עברי</t>
+  </si>
+  <si>
+    <t>العبرية</t>
+  </si>
+  <si>
+    <t>希伯来语</t>
+  </si>
+  <si>
+    <t>ヘブライ語</t>
+  </si>
+  <si>
+    <t>Holandština</t>
+  </si>
+  <si>
+    <t>Nederlandsk</t>
+  </si>
+  <si>
+    <t>Niederländisch</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Neerlandés</t>
+  </si>
+  <si>
+    <t>Néerlandais</t>
+  </si>
+  <si>
+    <t>Nizozemski jezik</t>
+  </si>
+  <si>
+    <t>Olandese</t>
+  </si>
+  <si>
+    <t>Holland</t>
+  </si>
+  <si>
+    <t>Nederlands</t>
+  </si>
+  <si>
+    <t>Język niderlandzki</t>
+  </si>
+  <si>
+    <t>Neerlandês</t>
+  </si>
+  <si>
+    <t>Hollanti</t>
+  </si>
+  <si>
+    <t>Nederländska</t>
+  </si>
+  <si>
+    <t>Hollandaca</t>
+  </si>
+  <si>
+    <t>Ολλανδική</t>
+  </si>
+  <si>
+    <t>Нидерландски</t>
+  </si>
+  <si>
+    <t>Нидерландский</t>
+  </si>
+  <si>
+    <t>הולנדית</t>
+  </si>
+  <si>
+    <t>الهولندية</t>
+  </si>
+  <si>
+    <t>荷兰语</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オランダ語 </t>
+  </si>
+  <si>
+    <t>Chorvatština</t>
+  </si>
+  <si>
+    <t>Kroatisk</t>
+  </si>
+  <si>
+    <t>Kroatisch</t>
+  </si>
+  <si>
+    <t>Croatian</t>
+  </si>
+  <si>
+    <t>Croata</t>
+  </si>
+  <si>
+    <t>Croate</t>
+  </si>
+  <si>
+    <t>Hrvatski</t>
+  </si>
+  <si>
+    <t>Croato</t>
+  </si>
+  <si>
+    <t>Horvát</t>
+  </si>
+  <si>
+    <t>Język chorwacki</t>
+  </si>
+  <si>
+    <t>Kroatia</t>
+  </si>
+  <si>
+    <t>Kroatiska</t>
+  </si>
+  <si>
+    <t>Hırvatça</t>
+  </si>
+  <si>
+    <t>Κροατική</t>
+  </si>
+  <si>
+    <t>Хърватски</t>
+  </si>
+  <si>
+    <t>Хорватский</t>
+  </si>
+  <si>
+    <t>קרואטית</t>
+  </si>
+  <si>
+    <t>الكرواتية</t>
+  </si>
+  <si>
+    <t>克罗地亚语</t>
+  </si>
+  <si>
+    <t>クロアチア語</t>
+  </si>
+  <si>
+    <t>Italština</t>
+  </si>
+  <si>
+    <t>Italiensk</t>
+  </si>
+  <si>
+    <t>Italienisch</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Italiano</t>
+  </si>
+  <si>
+    <t>Italien</t>
+  </si>
+  <si>
+    <t>Talijanski jezik</t>
+  </si>
+  <si>
+    <t>Olasz</t>
+  </si>
+  <si>
+    <t>Italiaans</t>
+  </si>
+  <si>
+    <t>Język włoski</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Italienska</t>
+  </si>
+  <si>
+    <t>İtalyanca</t>
+  </si>
+  <si>
+    <t>Ιταλική</t>
+  </si>
+  <si>
+    <t>Италиански</t>
+  </si>
+  <si>
+    <t>Итальянский</t>
+  </si>
+  <si>
+    <t>איטלקית</t>
+  </si>
+  <si>
+    <t>الإيطالية</t>
+  </si>
+  <si>
+    <t>意大利语</t>
+  </si>
+  <si>
+    <t>イタリア語</t>
+  </si>
+  <si>
+    <t>Japonština</t>
+  </si>
+  <si>
+    <t>Japansk</t>
+  </si>
+  <si>
+    <t>Japanisch</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Japonés</t>
+  </si>
+  <si>
+    <t>Japonais</t>
+  </si>
+  <si>
+    <t>Japanski jezik</t>
+  </si>
+  <si>
+    <t>Giapponese</t>
+  </si>
+  <si>
+    <t>Japán</t>
+  </si>
+  <si>
+    <t>Japanees</t>
+  </si>
+  <si>
+    <t>Język japoński</t>
+  </si>
+  <si>
+    <t>Japonês</t>
+  </si>
+  <si>
+    <t>Japani</t>
+  </si>
+  <si>
+    <t>Japanska</t>
+  </si>
+  <si>
+    <t>Japonca</t>
+  </si>
+  <si>
+    <t>Γιαπωνέζικη</t>
+  </si>
+  <si>
+    <t>Японски</t>
+  </si>
+  <si>
+    <t>Японский</t>
+  </si>
+  <si>
+    <t>יפנית</t>
+  </si>
+  <si>
+    <t>اليابانية</t>
+  </si>
+  <si>
+    <t>日语</t>
+  </si>
+  <si>
+    <t>日本の</t>
+  </si>
+  <si>
+    <t>Maďarština</t>
+  </si>
+  <si>
+    <t>Ungarsk</t>
+  </si>
+  <si>
+    <t>Ungarisch</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>Húngaro</t>
+  </si>
+  <si>
+    <t>Hongrois</t>
+  </si>
+  <si>
+    <t>Mađarski jezik</t>
+  </si>
+  <si>
+    <t>Ungherese</t>
+  </si>
+  <si>
+    <t>Magyar</t>
+  </si>
+  <si>
+    <t>Hongaars</t>
+  </si>
+  <si>
+    <t>Język węgierski</t>
+  </si>
+  <si>
+    <t>Hungaro</t>
+  </si>
+  <si>
+    <t>Unkari</t>
+  </si>
+  <si>
+    <t>Ungerska</t>
+  </si>
+  <si>
+    <t>Macarca</t>
+  </si>
+  <si>
+    <t>Ουγγρική</t>
+  </si>
+  <si>
+    <t>Унгарски</t>
+  </si>
+  <si>
+    <t>Венгерский</t>
+  </si>
+  <si>
+    <t>הונגרית</t>
+  </si>
+  <si>
+    <t>匈牙利语</t>
+  </si>
+  <si>
+    <t>ハンガリー語</t>
+  </si>
+  <si>
+    <t>Němčina</t>
+  </si>
+  <si>
+    <t>Tysk</t>
+  </si>
+  <si>
+    <t>Deutsch</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Alemán</t>
+  </si>
+  <si>
+    <t>Allemand</t>
+  </si>
+  <si>
+    <t>Njemački jezik</t>
+  </si>
+  <si>
+    <t>Tedesco</t>
+  </si>
+  <si>
+    <t>Német</t>
+  </si>
+  <si>
+    <t>Duits</t>
+  </si>
+  <si>
+    <t>Język niemiecki</t>
+  </si>
+  <si>
+    <t>Alemão</t>
+  </si>
+  <si>
+    <t>Saksa</t>
+  </si>
+  <si>
+    <t>Tyska</t>
+  </si>
+  <si>
+    <t>Almanca</t>
+  </si>
+  <si>
+    <t>Γερμανική</t>
+  </si>
+  <si>
+    <t>Немски</t>
+  </si>
+  <si>
+    <t>Немецкий</t>
+  </si>
+  <si>
+    <t>גרמנית</t>
+  </si>
+  <si>
+    <t>الألمانية</t>
+  </si>
+  <si>
+    <t>德语</t>
+  </si>
+  <si>
+    <t>ドイツ語</t>
+  </si>
+  <si>
+    <t>Norština</t>
+  </si>
+  <si>
+    <t>Norsk</t>
+  </si>
+  <si>
+    <t>Norwegisch</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>Noruego</t>
+  </si>
+  <si>
+    <t>Norvégien</t>
+  </si>
+  <si>
+    <t>Norveški jezik</t>
+  </si>
+  <si>
+    <t>Norvegese</t>
+  </si>
+  <si>
+    <t>Norvég</t>
+  </si>
+  <si>
+    <t>Noors</t>
+  </si>
+  <si>
+    <t>Język norweski</t>
+  </si>
+  <si>
+    <t>Norueguês</t>
+  </si>
+  <si>
+    <t>Norja</t>
+  </si>
+  <si>
+    <t>Norska</t>
+  </si>
+  <si>
+    <t>Norveççe</t>
+  </si>
+  <si>
+    <t>Νορβηγική</t>
+  </si>
+  <si>
+    <t>Норвежки</t>
+  </si>
+  <si>
+    <t>Норвежский</t>
+  </si>
+  <si>
+    <t>נורבגית</t>
+  </si>
+  <si>
+    <t>النرويجية</t>
+  </si>
+  <si>
+    <t>挪威语</t>
+  </si>
+  <si>
+    <t>ノルウェー語</t>
+  </si>
+  <si>
+    <t>Polština</t>
+  </si>
+  <si>
+    <t>Polsk</t>
+  </si>
+  <si>
+    <t>Polnisch</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Polaco</t>
+  </si>
+  <si>
+    <t>Polonais</t>
+  </si>
+  <si>
+    <t>Poljski jezik</t>
+  </si>
+  <si>
+    <t>Polacco</t>
+  </si>
+  <si>
+    <t>Lengyel</t>
+  </si>
+  <si>
+    <t>Pools</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Puola</t>
+  </si>
+  <si>
+    <t>Polska</t>
+  </si>
+  <si>
+    <t>Polonyaca</t>
+  </si>
+  <si>
+    <t>Πολωνική</t>
+  </si>
+  <si>
+    <t>Полски</t>
+  </si>
+  <si>
+    <t>Польский</t>
+  </si>
+  <si>
+    <t>פולנית</t>
+  </si>
+  <si>
+    <t>البولندية</t>
+  </si>
+  <si>
+    <t>波兰语</t>
+  </si>
+  <si>
+    <t>ポーランド語</t>
+  </si>
+  <si>
+    <t>Portugalština</t>
+  </si>
+  <si>
+    <t>Portugisisk</t>
+  </si>
+  <si>
+    <t>Portugiesisch</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Portugués</t>
+  </si>
+  <si>
+    <t>Portugais</t>
+  </si>
+  <si>
+    <t>Portugalski jezik</t>
+  </si>
+  <si>
+    <t>Portoghese</t>
+  </si>
+  <si>
+    <t>Portugál</t>
+  </si>
+  <si>
+    <t>Portugees</t>
+  </si>
+  <si>
+    <t>Język portugalski</t>
+  </si>
+  <si>
+    <t>Português</t>
+  </si>
+  <si>
+    <t>Portugali</t>
+  </si>
+  <si>
+    <t>Portugisiska</t>
+  </si>
+  <si>
+    <t>Portekizce</t>
+  </si>
+  <si>
+    <t>Πορτογαλική</t>
+  </si>
+  <si>
+    <t>Португалски</t>
+  </si>
+  <si>
+    <t>Португальский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פורטוגזית </t>
+  </si>
+  <si>
+    <t>البرتغالية</t>
+  </si>
+  <si>
+    <t>葡萄牙语</t>
+  </si>
+  <si>
+    <t>ポルトガル語</t>
+  </si>
+  <si>
+    <t>Ruština</t>
+  </si>
+  <si>
+    <t>Russisk</t>
+  </si>
+  <si>
+    <t>Russisch</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Ruso</t>
+  </si>
+  <si>
+    <t>Russe</t>
+  </si>
+  <si>
+    <t>Ruski jezik</t>
+  </si>
+  <si>
+    <t>Russo</t>
+  </si>
+  <si>
+    <t>Orosz</t>
+  </si>
+  <si>
+    <t>Język rosyjski</t>
+  </si>
+  <si>
+    <t>Venäjä</t>
+  </si>
+  <si>
+    <t>Rysska</t>
+  </si>
+  <si>
+    <t>Rusça</t>
+  </si>
+  <si>
+    <t>Ρωσική</t>
+  </si>
+  <si>
+    <t>Руски</t>
+  </si>
+  <si>
+    <t>русский</t>
+  </si>
+  <si>
+    <t>רוסית</t>
+  </si>
+  <si>
+    <t>الروسية</t>
+  </si>
+  <si>
+    <t>俄语</t>
+  </si>
+  <si>
+    <t>ロシア語</t>
+  </si>
+  <si>
+    <t>Řečtina</t>
+  </si>
+  <si>
+    <t>Græsk</t>
+  </si>
+  <si>
+    <t>Griechisch</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Griego</t>
+  </si>
+  <si>
+    <t>Grec</t>
+  </si>
+  <si>
+    <t>Grčki jezik</t>
+  </si>
+  <si>
+    <t>Greco</t>
+  </si>
+  <si>
+    <t>Görög</t>
+  </si>
+  <si>
+    <t>Grieks</t>
+  </si>
+  <si>
+    <t>Gresk</t>
+  </si>
+  <si>
+    <t>Język grecki</t>
+  </si>
+  <si>
+    <t>Grego</t>
+  </si>
+  <si>
+    <t>Kreikka</t>
+  </si>
+  <si>
+    <t>Grekiska</t>
+  </si>
+  <si>
+    <t>Yunanca</t>
+  </si>
+  <si>
+    <t>ελληνικά</t>
+  </si>
+  <si>
+    <t>Гръцки</t>
+  </si>
+  <si>
+    <t>Греческий</t>
+  </si>
+  <si>
+    <t>יוונית</t>
+  </si>
+  <si>
+    <t>اليونانية</t>
+  </si>
+  <si>
+    <t>希腊语</t>
+  </si>
+  <si>
+    <t>ギリシャ語</t>
+  </si>
+  <si>
+    <t>Španělština</t>
+  </si>
+  <si>
+    <t>Spansk</t>
+  </si>
+  <si>
+    <t>Spanisch</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>Espagnol</t>
+  </si>
+  <si>
+    <t>Španjolski jezik</t>
+  </si>
+  <si>
+    <t>Spagnolo</t>
+  </si>
+  <si>
+    <t>Spanyol</t>
+  </si>
+  <si>
+    <t>Spaans</t>
+  </si>
+  <si>
+    <t>Język hiszpański</t>
+  </si>
+  <si>
+    <t>Espanhol</t>
+  </si>
+  <si>
+    <t>Espanja</t>
+  </si>
+  <si>
+    <t>Spanska</t>
+  </si>
+  <si>
+    <t>İspanyolca</t>
+  </si>
+  <si>
+    <t>Ισπανική</t>
+  </si>
+  <si>
+    <t>Испански</t>
+  </si>
+  <si>
+    <t>Испанский</t>
+  </si>
+  <si>
+    <t>ספרדית</t>
+  </si>
+  <si>
+    <t>الأسبانية</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>スペイン語</t>
+  </si>
+  <si>
+    <t>Švédština</t>
+  </si>
+  <si>
+    <t>Svensk</t>
+  </si>
+  <si>
+    <t>Schwedisch</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Sueco</t>
+  </si>
+  <si>
+    <t>Suédois</t>
+  </si>
+  <si>
+    <t>Švedski jezik</t>
+  </si>
+  <si>
+    <t>Svedese</t>
+  </si>
+  <si>
+    <t>Svéd</t>
+  </si>
+  <si>
+    <t>Zweeds</t>
+  </si>
+  <si>
+    <t>Język szwedzki</t>
+  </si>
+  <si>
+    <t>Ruotsi</t>
+  </si>
+  <si>
+    <t>Svenska</t>
+  </si>
+  <si>
+    <t>İsveççe</t>
+  </si>
+  <si>
+    <t>Σουηδική</t>
+  </si>
+  <si>
+    <t>Шведски</t>
+  </si>
+  <si>
+    <t>Шведский</t>
+  </si>
+  <si>
+    <t>שוודית</t>
+  </si>
+  <si>
+    <t>السويدية</t>
+  </si>
+  <si>
+    <t>瑞典语</t>
+  </si>
+  <si>
+    <t>スウェーデン語</t>
+  </si>
+  <si>
+    <t>Turečtina</t>
+  </si>
+  <si>
+    <t>Tyrkisk</t>
+  </si>
+  <si>
+    <t>Türkisch</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Turco</t>
+  </si>
+  <si>
+    <t>Turc</t>
+  </si>
+  <si>
+    <t>Turski jezik</t>
+  </si>
+  <si>
+    <t>Török</t>
+  </si>
+  <si>
+    <t>Turks</t>
+  </si>
+  <si>
+    <t>Język turecki</t>
+  </si>
+  <si>
+    <t>Turkki</t>
+  </si>
+  <si>
+    <t>Turkiska</t>
+  </si>
+  <si>
+    <t>Türk</t>
+  </si>
+  <si>
+    <t>Τουρκική</t>
+  </si>
+  <si>
+    <t>Турски</t>
+  </si>
+  <si>
+    <t>Турецкий</t>
+  </si>
+  <si>
+    <t>טורקית</t>
+  </si>
+  <si>
+    <t>التركية</t>
+  </si>
+  <si>
+    <t>土耳其语</t>
+  </si>
+  <si>
+    <t>トルコ語</t>
+  </si>
+  <si>
+    <t>Čeština</t>
+  </si>
+  <si>
+    <t>Tjekkisk</t>
+  </si>
+  <si>
+    <t>Tschechisch</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>Checo</t>
+  </si>
+  <si>
+    <t>Tchèque</t>
+  </si>
+  <si>
+    <t>Češki jezik</t>
+  </si>
+  <si>
+    <t>Ceco</t>
+  </si>
+  <si>
+    <t>Cseh</t>
+  </si>
+  <si>
+    <t>Tsjechisch</t>
+  </si>
+  <si>
+    <t>Tsjekkisk</t>
+  </si>
+  <si>
+    <t>Język czeski</t>
+  </si>
+  <si>
+    <t>Tšekki</t>
+  </si>
+  <si>
+    <t>Tjeckiska</t>
+  </si>
+  <si>
+    <t>Çekçe</t>
+  </si>
+  <si>
+    <t>Τσεχική</t>
+  </si>
+  <si>
+    <t>Чешки</t>
+  </si>
+  <si>
+    <t>Чешский</t>
+  </si>
+  <si>
+    <t>צ'כית</t>
+  </si>
+  <si>
+    <t>التشيكية</t>
+  </si>
+  <si>
+    <t>捷克语</t>
+  </si>
+  <si>
+    <t>チェコ語</t>
   </si>
 </sst>
 </file>
@@ -657,11 +2136,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5:W5"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1022,6 +2501,1639 @@
         <v>39</v>
       </c>
     </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>105</v>
+      </c>
+      <c r="R6" t="s">
+        <v>106</v>
+      </c>
+      <c r="S6" t="s">
+        <v>107</v>
+      </c>
+      <c r="T6" t="s">
+        <v>108</v>
+      </c>
+      <c r="U6" t="s">
+        <v>109</v>
+      </c>
+      <c r="V6" t="s">
+        <v>110</v>
+      </c>
+      <c r="W6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>126</v>
+      </c>
+      <c r="R7" t="s">
+        <v>127</v>
+      </c>
+      <c r="S7" t="s">
+        <v>128</v>
+      </c>
+      <c r="T7" t="s">
+        <v>129</v>
+      </c>
+      <c r="U7" t="s">
+        <v>130</v>
+      </c>
+      <c r="V7" t="s">
+        <v>131</v>
+      </c>
+      <c r="W7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" t="s">
+        <v>148</v>
+      </c>
+      <c r="S8" t="s">
+        <v>149</v>
+      </c>
+      <c r="T8" t="s">
+        <v>150</v>
+      </c>
+      <c r="U8" t="s">
+        <v>151</v>
+      </c>
+      <c r="V8" t="s">
+        <v>152</v>
+      </c>
+      <c r="W8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" t="s">
+        <v>165</v>
+      </c>
+      <c r="N9" t="s">
+        <v>166</v>
+      </c>
+      <c r="O9" t="s">
+        <v>167</v>
+      </c>
+      <c r="P9" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>169</v>
+      </c>
+      <c r="R9" t="s">
+        <v>170</v>
+      </c>
+      <c r="S9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T9" t="s">
+        <v>172</v>
+      </c>
+      <c r="U9" t="s">
+        <v>173</v>
+      </c>
+      <c r="V9" t="s">
+        <v>174</v>
+      </c>
+      <c r="W9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" t="s">
+        <v>184</v>
+      </c>
+      <c r="J10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L10" t="s">
+        <v>186</v>
+      </c>
+      <c r="M10" t="s">
+        <v>187</v>
+      </c>
+      <c r="N10" t="s">
+        <v>188</v>
+      </c>
+      <c r="O10" t="s">
+        <v>189</v>
+      </c>
+      <c r="P10" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>191</v>
+      </c>
+      <c r="R10" t="s">
+        <v>192</v>
+      </c>
+      <c r="S10" t="s">
+        <v>193</v>
+      </c>
+      <c r="T10" t="s">
+        <v>194</v>
+      </c>
+      <c r="U10" t="s">
+        <v>195</v>
+      </c>
+      <c r="V10" t="s">
+        <v>196</v>
+      </c>
+      <c r="W10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" t="s">
+        <v>199</v>
+      </c>
+      <c r="L11" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" t="s">
+        <v>209</v>
+      </c>
+      <c r="N11" t="s">
+        <v>210</v>
+      </c>
+      <c r="O11" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>213</v>
+      </c>
+      <c r="R11" t="s">
+        <v>214</v>
+      </c>
+      <c r="S11" t="s">
+        <v>215</v>
+      </c>
+      <c r="T11" t="s">
+        <v>216</v>
+      </c>
+      <c r="U11" t="s">
+        <v>217</v>
+      </c>
+      <c r="V11" t="s">
+        <v>218</v>
+      </c>
+      <c r="W11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" t="s">
+        <v>228</v>
+      </c>
+      <c r="J12" t="s">
+        <v>229</v>
+      </c>
+      <c r="K12" t="s">
+        <v>221</v>
+      </c>
+      <c r="L12" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" t="s">
+        <v>231</v>
+      </c>
+      <c r="N12" t="s">
+        <v>232</v>
+      </c>
+      <c r="O12" t="s">
+        <v>233</v>
+      </c>
+      <c r="P12" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>235</v>
+      </c>
+      <c r="R12" t="s">
+        <v>236</v>
+      </c>
+      <c r="S12" t="s">
+        <v>237</v>
+      </c>
+      <c r="T12" t="s">
+        <v>238</v>
+      </c>
+      <c r="U12" t="s">
+        <v>239</v>
+      </c>
+      <c r="V12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" t="s">
+        <v>248</v>
+      </c>
+      <c r="H13" t="s">
+        <v>249</v>
+      </c>
+      <c r="I13" t="s">
+        <v>250</v>
+      </c>
+      <c r="J13" t="s">
+        <v>251</v>
+      </c>
+      <c r="K13" t="s">
+        <v>243</v>
+      </c>
+      <c r="L13" t="s">
+        <v>252</v>
+      </c>
+      <c r="M13" t="s">
+        <v>253</v>
+      </c>
+      <c r="N13" t="s">
+        <v>254</v>
+      </c>
+      <c r="O13" t="s">
+        <v>255</v>
+      </c>
+      <c r="P13" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>257</v>
+      </c>
+      <c r="R13" t="s">
+        <v>258</v>
+      </c>
+      <c r="S13" t="s">
+        <v>258</v>
+      </c>
+      <c r="T13" t="s">
+        <v>259</v>
+      </c>
+      <c r="U13" t="s">
+        <v>260</v>
+      </c>
+      <c r="V13" t="s">
+        <v>261</v>
+      </c>
+      <c r="W13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" t="s">
+        <v>269</v>
+      </c>
+      <c r="H14" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J14" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14" t="s">
+        <v>264</v>
+      </c>
+      <c r="L14" t="s">
+        <v>273</v>
+      </c>
+      <c r="M14" t="s">
+        <v>274</v>
+      </c>
+      <c r="N14" t="s">
+        <v>275</v>
+      </c>
+      <c r="O14" t="s">
+        <v>276</v>
+      </c>
+      <c r="P14" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>278</v>
+      </c>
+      <c r="R14" t="s">
+        <v>279</v>
+      </c>
+      <c r="S14" t="s">
+        <v>280</v>
+      </c>
+      <c r="T14" t="s">
+        <v>281</v>
+      </c>
+      <c r="U14" t="s">
+        <v>282</v>
+      </c>
+      <c r="V14" t="s">
+        <v>283</v>
+      </c>
+      <c r="W14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F15" t="s">
+        <v>290</v>
+      </c>
+      <c r="G15" t="s">
+        <v>291</v>
+      </c>
+      <c r="H15" t="s">
+        <v>292</v>
+      </c>
+      <c r="I15" t="s">
+        <v>293</v>
+      </c>
+      <c r="J15" t="s">
+        <v>287</v>
+      </c>
+      <c r="K15" t="s">
+        <v>286</v>
+      </c>
+      <c r="L15" t="s">
+        <v>294</v>
+      </c>
+      <c r="M15" t="s">
+        <v>289</v>
+      </c>
+      <c r="N15" t="s">
+        <v>295</v>
+      </c>
+      <c r="O15" t="s">
+        <v>296</v>
+      </c>
+      <c r="P15" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>298</v>
+      </c>
+      <c r="R15" t="s">
+        <v>299</v>
+      </c>
+      <c r="S15" t="s">
+        <v>300</v>
+      </c>
+      <c r="T15" t="s">
+        <v>301</v>
+      </c>
+      <c r="U15" t="s">
+        <v>302</v>
+      </c>
+      <c r="V15" t="s">
+        <v>303</v>
+      </c>
+      <c r="W15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16" t="s">
+        <v>311</v>
+      </c>
+      <c r="H16" t="s">
+        <v>309</v>
+      </c>
+      <c r="I16" t="s">
+        <v>312</v>
+      </c>
+      <c r="J16" t="s">
+        <v>313</v>
+      </c>
+      <c r="K16" t="s">
+        <v>306</v>
+      </c>
+      <c r="L16" t="s">
+        <v>314</v>
+      </c>
+      <c r="M16" t="s">
+        <v>309</v>
+      </c>
+      <c r="N16" t="s">
+        <v>315</v>
+      </c>
+      <c r="O16" t="s">
+        <v>316</v>
+      </c>
+      <c r="P16" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>318</v>
+      </c>
+      <c r="R16" t="s">
+        <v>319</v>
+      </c>
+      <c r="S16" t="s">
+        <v>320</v>
+      </c>
+      <c r="T16" t="s">
+        <v>321</v>
+      </c>
+      <c r="U16" t="s">
+        <v>322</v>
+      </c>
+      <c r="V16" t="s">
+        <v>323</v>
+      </c>
+      <c r="W16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E17" t="s">
+        <v>329</v>
+      </c>
+      <c r="F17" t="s">
+        <v>330</v>
+      </c>
+      <c r="G17" t="s">
+        <v>331</v>
+      </c>
+      <c r="H17" t="s">
+        <v>332</v>
+      </c>
+      <c r="I17" t="s">
+        <v>333</v>
+      </c>
+      <c r="J17" t="s">
+        <v>334</v>
+      </c>
+      <c r="K17" t="s">
+        <v>326</v>
+      </c>
+      <c r="L17" t="s">
+        <v>335</v>
+      </c>
+      <c r="M17" t="s">
+        <v>336</v>
+      </c>
+      <c r="N17" t="s">
+        <v>337</v>
+      </c>
+      <c r="O17" t="s">
+        <v>338</v>
+      </c>
+      <c r="P17" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>340</v>
+      </c>
+      <c r="R17" t="s">
+        <v>341</v>
+      </c>
+      <c r="S17" t="s">
+        <v>342</v>
+      </c>
+      <c r="T17" t="s">
+        <v>343</v>
+      </c>
+      <c r="U17" t="s">
+        <v>344</v>
+      </c>
+      <c r="V17" t="s">
+        <v>345</v>
+      </c>
+      <c r="W17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F18" t="s">
+        <v>352</v>
+      </c>
+      <c r="G18" t="s">
+        <v>353</v>
+      </c>
+      <c r="H18" t="s">
+        <v>354</v>
+      </c>
+      <c r="I18" t="s">
+        <v>355</v>
+      </c>
+      <c r="J18" t="s">
+        <v>356</v>
+      </c>
+      <c r="K18" t="s">
+        <v>348</v>
+      </c>
+      <c r="L18" t="s">
+        <v>357</v>
+      </c>
+      <c r="M18" t="s">
+        <v>358</v>
+      </c>
+      <c r="N18" t="s">
+        <v>359</v>
+      </c>
+      <c r="O18" t="s">
+        <v>360</v>
+      </c>
+      <c r="P18" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>362</v>
+      </c>
+      <c r="R18" t="s">
+        <v>363</v>
+      </c>
+      <c r="S18" t="s">
+        <v>364</v>
+      </c>
+      <c r="T18" t="s">
+        <v>365</v>
+      </c>
+      <c r="U18" t="s">
+        <v>344</v>
+      </c>
+      <c r="V18" t="s">
+        <v>366</v>
+      </c>
+      <c r="W18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>368</v>
+      </c>
+      <c r="B19" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" t="s">
+        <v>371</v>
+      </c>
+      <c r="E19" t="s">
+        <v>372</v>
+      </c>
+      <c r="F19" t="s">
+        <v>373</v>
+      </c>
+      <c r="G19" t="s">
+        <v>374</v>
+      </c>
+      <c r="H19" t="s">
+        <v>375</v>
+      </c>
+      <c r="I19" t="s">
+        <v>376</v>
+      </c>
+      <c r="J19" t="s">
+        <v>377</v>
+      </c>
+      <c r="K19" t="s">
+        <v>369</v>
+      </c>
+      <c r="L19" t="s">
+        <v>378</v>
+      </c>
+      <c r="M19" t="s">
+        <v>379</v>
+      </c>
+      <c r="N19" t="s">
+        <v>380</v>
+      </c>
+      <c r="O19" t="s">
+        <v>381</v>
+      </c>
+      <c r="P19" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>383</v>
+      </c>
+      <c r="R19" t="s">
+        <v>384</v>
+      </c>
+      <c r="S19" t="s">
+        <v>385</v>
+      </c>
+      <c r="T19" t="s">
+        <v>386</v>
+      </c>
+      <c r="U19" t="s">
+        <v>387</v>
+      </c>
+      <c r="V19" t="s">
+        <v>388</v>
+      </c>
+      <c r="W19" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>390</v>
+      </c>
+      <c r="B20" t="s">
+        <v>391</v>
+      </c>
+      <c r="C20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D20" t="s">
+        <v>393</v>
+      </c>
+      <c r="E20" t="s">
+        <v>394</v>
+      </c>
+      <c r="F20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G20" t="s">
+        <v>396</v>
+      </c>
+      <c r="H20" t="s">
+        <v>397</v>
+      </c>
+      <c r="I20" t="s">
+        <v>398</v>
+      </c>
+      <c r="J20" t="s">
+        <v>399</v>
+      </c>
+      <c r="K20" t="s">
+        <v>391</v>
+      </c>
+      <c r="L20" t="s">
+        <v>400</v>
+      </c>
+      <c r="M20" t="s">
+        <v>401</v>
+      </c>
+      <c r="N20" t="s">
+        <v>402</v>
+      </c>
+      <c r="O20" t="s">
+        <v>403</v>
+      </c>
+      <c r="P20" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>405</v>
+      </c>
+      <c r="R20" t="s">
+        <v>406</v>
+      </c>
+      <c r="S20" t="s">
+        <v>407</v>
+      </c>
+      <c r="T20" t="s">
+        <v>408</v>
+      </c>
+      <c r="U20" t="s">
+        <v>409</v>
+      </c>
+      <c r="V20" t="s">
+        <v>410</v>
+      </c>
+      <c r="W20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>412</v>
+      </c>
+      <c r="B21" t="s">
+        <v>413</v>
+      </c>
+      <c r="C21" t="s">
+        <v>414</v>
+      </c>
+      <c r="D21" t="s">
+        <v>415</v>
+      </c>
+      <c r="E21" t="s">
+        <v>416</v>
+      </c>
+      <c r="F21" t="s">
+        <v>417</v>
+      </c>
+      <c r="G21" t="s">
+        <v>418</v>
+      </c>
+      <c r="H21" t="s">
+        <v>419</v>
+      </c>
+      <c r="I21" t="s">
+        <v>420</v>
+      </c>
+      <c r="J21" t="s">
+        <v>421</v>
+      </c>
+      <c r="K21" t="s">
+        <v>413</v>
+      </c>
+      <c r="L21" t="s">
+        <v>422</v>
+      </c>
+      <c r="M21" t="s">
+        <v>416</v>
+      </c>
+      <c r="N21" t="s">
+        <v>423</v>
+      </c>
+      <c r="O21" t="s">
+        <v>424</v>
+      </c>
+      <c r="P21" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>426</v>
+      </c>
+      <c r="R21" t="s">
+        <v>427</v>
+      </c>
+      <c r="S21" t="s">
+        <v>428</v>
+      </c>
+      <c r="T21" t="s">
+        <v>429</v>
+      </c>
+      <c r="U21" t="s">
+        <v>430</v>
+      </c>
+      <c r="V21" t="s">
+        <v>431</v>
+      </c>
+      <c r="W21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>433</v>
+      </c>
+      <c r="B22" t="s">
+        <v>434</v>
+      </c>
+      <c r="C22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D22" t="s">
+        <v>436</v>
+      </c>
+      <c r="E22" t="s">
+        <v>437</v>
+      </c>
+      <c r="F22" t="s">
+        <v>438</v>
+      </c>
+      <c r="G22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H22" t="s">
+        <v>440</v>
+      </c>
+      <c r="I22" t="s">
+        <v>441</v>
+      </c>
+      <c r="J22" t="s">
+        <v>442</v>
+      </c>
+      <c r="K22" t="s">
+        <v>434</v>
+      </c>
+      <c r="L22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M22" t="s">
+        <v>444</v>
+      </c>
+      <c r="N22" t="s">
+        <v>445</v>
+      </c>
+      <c r="O22" t="s">
+        <v>446</v>
+      </c>
+      <c r="P22" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>448</v>
+      </c>
+      <c r="R22" t="s">
+        <v>449</v>
+      </c>
+      <c r="S22" t="s">
+        <v>450</v>
+      </c>
+      <c r="T22" t="s">
+        <v>451</v>
+      </c>
+      <c r="U22" t="s">
+        <v>452</v>
+      </c>
+      <c r="V22" t="s">
+        <v>453</v>
+      </c>
+      <c r="W22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>455</v>
+      </c>
+      <c r="B23" t="s">
+        <v>456</v>
+      </c>
+      <c r="C23" t="s">
+        <v>457</v>
+      </c>
+      <c r="D23" t="s">
+        <v>458</v>
+      </c>
+      <c r="E23" t="s">
+        <v>459</v>
+      </c>
+      <c r="F23" t="s">
+        <v>460</v>
+      </c>
+      <c r="G23" t="s">
+        <v>461</v>
+      </c>
+      <c r="H23" t="s">
+        <v>462</v>
+      </c>
+      <c r="I23" t="s">
+        <v>463</v>
+      </c>
+      <c r="J23" t="s">
+        <v>457</v>
+      </c>
+      <c r="K23" t="s">
+        <v>456</v>
+      </c>
+      <c r="L23" t="s">
+        <v>464</v>
+      </c>
+      <c r="M23" t="s">
+        <v>462</v>
+      </c>
+      <c r="N23" t="s">
+        <v>465</v>
+      </c>
+      <c r="O23" t="s">
+        <v>466</v>
+      </c>
+      <c r="P23" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>468</v>
+      </c>
+      <c r="R23" t="s">
+        <v>469</v>
+      </c>
+      <c r="S23" t="s">
+        <v>470</v>
+      </c>
+      <c r="T23" t="s">
+        <v>471</v>
+      </c>
+      <c r="U23" t="s">
+        <v>472</v>
+      </c>
+      <c r="V23" t="s">
+        <v>473</v>
+      </c>
+      <c r="W23" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>475</v>
+      </c>
+      <c r="B24" t="s">
+        <v>476</v>
+      </c>
+      <c r="C24" t="s">
+        <v>477</v>
+      </c>
+      <c r="D24" t="s">
+        <v>478</v>
+      </c>
+      <c r="E24" t="s">
+        <v>479</v>
+      </c>
+      <c r="F24" t="s">
+        <v>480</v>
+      </c>
+      <c r="G24" t="s">
+        <v>481</v>
+      </c>
+      <c r="H24" t="s">
+        <v>482</v>
+      </c>
+      <c r="I24" t="s">
+        <v>483</v>
+      </c>
+      <c r="J24" t="s">
+        <v>484</v>
+      </c>
+      <c r="K24" t="s">
+        <v>485</v>
+      </c>
+      <c r="L24" t="s">
+        <v>486</v>
+      </c>
+      <c r="M24" t="s">
+        <v>487</v>
+      </c>
+      <c r="N24" t="s">
+        <v>488</v>
+      </c>
+      <c r="O24" t="s">
+        <v>489</v>
+      </c>
+      <c r="P24" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>491</v>
+      </c>
+      <c r="R24" t="s">
+        <v>492</v>
+      </c>
+      <c r="S24" t="s">
+        <v>493</v>
+      </c>
+      <c r="T24" t="s">
+        <v>494</v>
+      </c>
+      <c r="U24" t="s">
+        <v>495</v>
+      </c>
+      <c r="V24" t="s">
+        <v>496</v>
+      </c>
+      <c r="W24" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>498</v>
+      </c>
+      <c r="B25" t="s">
+        <v>499</v>
+      </c>
+      <c r="C25" t="s">
+        <v>500</v>
+      </c>
+      <c r="D25" t="s">
+        <v>501</v>
+      </c>
+      <c r="E25" t="s">
+        <v>502</v>
+      </c>
+      <c r="F25" t="s">
+        <v>503</v>
+      </c>
+      <c r="G25" t="s">
+        <v>504</v>
+      </c>
+      <c r="H25" t="s">
+        <v>505</v>
+      </c>
+      <c r="I25" t="s">
+        <v>506</v>
+      </c>
+      <c r="J25" t="s">
+        <v>507</v>
+      </c>
+      <c r="K25" t="s">
+        <v>499</v>
+      </c>
+      <c r="L25" t="s">
+        <v>508</v>
+      </c>
+      <c r="M25" t="s">
+        <v>509</v>
+      </c>
+      <c r="N25" t="s">
+        <v>510</v>
+      </c>
+      <c r="O25" t="s">
+        <v>511</v>
+      </c>
+      <c r="P25" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>513</v>
+      </c>
+      <c r="R25" t="s">
+        <v>514</v>
+      </c>
+      <c r="S25" t="s">
+        <v>515</v>
+      </c>
+      <c r="T25" t="s">
+        <v>516</v>
+      </c>
+      <c r="U25" t="s">
+        <v>517</v>
+      </c>
+      <c r="V25" t="s">
+        <v>518</v>
+      </c>
+      <c r="W25" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B26" t="s">
+        <v>521</v>
+      </c>
+      <c r="C26" t="s">
+        <v>522</v>
+      </c>
+      <c r="D26" t="s">
+        <v>523</v>
+      </c>
+      <c r="E26" t="s">
+        <v>524</v>
+      </c>
+      <c r="F26" t="s">
+        <v>525</v>
+      </c>
+      <c r="G26" t="s">
+        <v>526</v>
+      </c>
+      <c r="H26" t="s">
+        <v>527</v>
+      </c>
+      <c r="I26" t="s">
+        <v>528</v>
+      </c>
+      <c r="J26" t="s">
+        <v>529</v>
+      </c>
+      <c r="K26" t="s">
+        <v>521</v>
+      </c>
+      <c r="L26" t="s">
+        <v>530</v>
+      </c>
+      <c r="M26" t="s">
+        <v>524</v>
+      </c>
+      <c r="N26" t="s">
+        <v>531</v>
+      </c>
+      <c r="O26" t="s">
+        <v>532</v>
+      </c>
+      <c r="P26" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>534</v>
+      </c>
+      <c r="R26" t="s">
+        <v>535</v>
+      </c>
+      <c r="S26" t="s">
+        <v>536</v>
+      </c>
+      <c r="T26" t="s">
+        <v>537</v>
+      </c>
+      <c r="U26" t="s">
+        <v>538</v>
+      </c>
+      <c r="V26" t="s">
+        <v>539</v>
+      </c>
+      <c r="W26" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>541</v>
+      </c>
+      <c r="B27" t="s">
+        <v>542</v>
+      </c>
+      <c r="C27" t="s">
+        <v>543</v>
+      </c>
+      <c r="D27" t="s">
+        <v>544</v>
+      </c>
+      <c r="E27" t="s">
+        <v>545</v>
+      </c>
+      <c r="F27" t="s">
+        <v>546</v>
+      </c>
+      <c r="G27" t="s">
+        <v>547</v>
+      </c>
+      <c r="H27" t="s">
+        <v>545</v>
+      </c>
+      <c r="I27" t="s">
+        <v>548</v>
+      </c>
+      <c r="J27" t="s">
+        <v>549</v>
+      </c>
+      <c r="K27" t="s">
+        <v>542</v>
+      </c>
+      <c r="L27" t="s">
+        <v>550</v>
+      </c>
+      <c r="M27" t="s">
+        <v>545</v>
+      </c>
+      <c r="N27" t="s">
+        <v>551</v>
+      </c>
+      <c r="O27" t="s">
+        <v>552</v>
+      </c>
+      <c r="P27" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>554</v>
+      </c>
+      <c r="R27" t="s">
+        <v>555</v>
+      </c>
+      <c r="S27" t="s">
+        <v>556</v>
+      </c>
+      <c r="T27" t="s">
+        <v>557</v>
+      </c>
+      <c r="U27" t="s">
+        <v>558</v>
+      </c>
+      <c r="V27" t="s">
+        <v>559</v>
+      </c>
+      <c r="W27" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>561</v>
+      </c>
+      <c r="B28" t="s">
+        <v>562</v>
+      </c>
+      <c r="C28" t="s">
+        <v>563</v>
+      </c>
+      <c r="D28" t="s">
+        <v>564</v>
+      </c>
+      <c r="E28" t="s">
+        <v>565</v>
+      </c>
+      <c r="F28" t="s">
+        <v>566</v>
+      </c>
+      <c r="G28" t="s">
+        <v>567</v>
+      </c>
+      <c r="H28" t="s">
+        <v>568</v>
+      </c>
+      <c r="I28" t="s">
+        <v>569</v>
+      </c>
+      <c r="J28" t="s">
+        <v>570</v>
+      </c>
+      <c r="K28" t="s">
+        <v>571</v>
+      </c>
+      <c r="L28" t="s">
+        <v>572</v>
+      </c>
+      <c r="M28" t="s">
+        <v>565</v>
+      </c>
+      <c r="N28" t="s">
+        <v>573</v>
+      </c>
+      <c r="O28" t="s">
+        <v>574</v>
+      </c>
+      <c r="P28" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>576</v>
+      </c>
+      <c r="R28" t="s">
+        <v>577</v>
+      </c>
+      <c r="S28" t="s">
+        <v>578</v>
+      </c>
+      <c r="T28" t="s">
+        <v>579</v>
+      </c>
+      <c r="U28" t="s">
+        <v>580</v>
+      </c>
+      <c r="V28" t="s">
+        <v>581</v>
+      </c>
+      <c r="W28" t="s">
+        <v>582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
